--- a/transit_agency_ridership_preprocessed_datasets/gold_coast_transit_ridership.xlsx
+++ b/transit_agency_ridership_preprocessed_datasets/gold_coast_transit_ridership.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>lon</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
